--- a/src/main/resources/kegelmeisterschaft/service/importer/2016/results/KC Sahneschnitte.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2016/results/KC Sahneschnitte.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="34">
   <si>
     <t>firstName</t>
   </si>
@@ -88,7 +88,31 @@
     <t>Martin</t>
   </si>
   <si>
+    <t>Walburga</t>
+  </si>
+  <si>
+    <t>Kopp</t>
+  </si>
+  <si>
     <t>checker</t>
+  </si>
+  <si>
+    <t>Ralf</t>
+  </si>
+  <si>
+    <t>Borchert</t>
+  </si>
+  <si>
+    <t>Sonja</t>
+  </si>
+  <si>
+    <t>Heße</t>
+  </si>
+  <si>
+    <t>Andree</t>
+  </si>
+  <si>
+    <t>Drögekamp</t>
   </si>
 </sst>
 </file>
@@ -158,11 +182,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -216,26 +240,26 @@
         <v>12</v>
       </c>
       <c r="E2" s="4">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="F2" s="4">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="G2" s="4">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H2" s="4">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="I2" s="4">
         <v>0.0</v>
       </c>
       <c r="J2" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="3">
-        <v>0.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="3">
@@ -252,26 +276,26 @@
         <v>12</v>
       </c>
       <c r="E3" s="4">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="F3" s="4">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="G3" s="4">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H3" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I3" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J3" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="3">
-        <v>0.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="4">
@@ -288,26 +312,26 @@
         <v>12</v>
       </c>
       <c r="E4" s="4">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F4" s="4">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G4" s="4">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H4" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I4" s="4">
         <v>0.0</v>
       </c>
       <c r="J4" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="3">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="5">
@@ -324,26 +348,26 @@
         <v>12</v>
       </c>
       <c r="E5" s="4">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F5" s="4">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G5" s="4">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H5" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I5" s="4">
         <v>0.0</v>
       </c>
       <c r="J5" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="3">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="6">
@@ -360,26 +384,26 @@
         <v>12</v>
       </c>
       <c r="E6" s="4">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F6" s="4">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G6" s="4">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H6" s="4">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="I6" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J6" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="3">
-        <v>0.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="7">
@@ -396,26 +420,26 @@
         <v>12</v>
       </c>
       <c r="E7" s="4">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="F7" s="4">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="G7" s="4">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="H7" s="4">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I7" s="4">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J7" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="3">
-        <v>0.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="8">
@@ -432,26 +456,26 @@
         <v>12</v>
       </c>
       <c r="E8" s="4">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F8" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G8" s="4">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H8" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I8" s="4">
         <v>0.0</v>
       </c>
       <c r="J8" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="3">
-        <v>0.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="9">
@@ -468,26 +492,26 @@
         <v>12</v>
       </c>
       <c r="E9" s="4">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F9" s="4">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="G9" s="4">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="H9" s="4">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="I9" s="4">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J9" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="3">
-        <v>0.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="10">
@@ -504,26 +528,26 @@
         <v>12</v>
       </c>
       <c r="E10" s="4">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F10" s="4">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G10" s="4">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H10" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I10" s="4">
         <v>0.0</v>
       </c>
       <c r="J10" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="3">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="11">
@@ -540,26 +564,26 @@
         <v>12</v>
       </c>
       <c r="E11" s="4">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F11" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G11" s="4">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H11" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I11" s="4">
         <v>0.0</v>
       </c>
       <c r="J11" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="3">
-        <v>0.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="12">
@@ -576,26 +600,26 @@
         <v>12</v>
       </c>
       <c r="E12" s="4">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F12" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G12" s="4">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H12" s="4">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I12" s="4">
         <v>0.0</v>
       </c>
       <c r="J12" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="3">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="13">
@@ -612,26 +636,26 @@
         <v>12</v>
       </c>
       <c r="E13" s="4">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F13" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G13" s="4">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H13" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I13" s="4">
         <v>0.0</v>
       </c>
       <c r="J13" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="3">
-        <v>0.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="14">
@@ -648,26 +672,26 @@
         <v>12</v>
       </c>
       <c r="E14" s="4">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F14" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G14" s="4">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H14" s="4">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I14" s="4">
         <v>0.0</v>
       </c>
       <c r="J14" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="3">
-        <v>0.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="15">
@@ -684,26 +708,26 @@
         <v>12</v>
       </c>
       <c r="E15" s="4">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F15" s="4">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="G15" s="4">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="H15" s="4">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="I15" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J15" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="3">
-        <v>0.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="16">
@@ -720,26 +744,26 @@
         <v>12</v>
       </c>
       <c r="E16" s="4">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F16" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G16" s="4">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H16" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I16" s="4">
         <v>0.0</v>
       </c>
       <c r="J16" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="3">
-        <v>0.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="17">
@@ -756,26 +780,26 @@
         <v>12</v>
       </c>
       <c r="E17" s="4">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F17" s="4">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G17" s="4">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H17" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I17" s="4">
         <v>0.0</v>
       </c>
       <c r="J17" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="3">
-        <v>0.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="18">
@@ -792,26 +816,26 @@
         <v>12</v>
       </c>
       <c r="E18" s="4">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F18" s="4">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G18" s="4">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="H18" s="4">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I18" s="4">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J18" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="3">
-        <v>0.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="19">
@@ -828,26 +852,26 @@
         <v>12</v>
       </c>
       <c r="E19" s="4">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="F19" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G19" s="4">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H19" s="4">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I19" s="4">
         <v>0.0</v>
       </c>
       <c r="J19" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="3">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="20">
@@ -864,26 +888,26 @@
         <v>12</v>
       </c>
       <c r="E20" s="4">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="F20" s="4">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="G20" s="4">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H20" s="4">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I20" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J20" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="3">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="21">
@@ -900,26 +924,26 @@
         <v>12</v>
       </c>
       <c r="E21" s="4">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="F21" s="4">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="G21" s="4">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H21" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I21" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J21" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="3">
-        <v>0.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="22">
@@ -951,7 +975,7 @@
         <v>0.0</v>
       </c>
       <c r="J22" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="3">
@@ -987,7 +1011,7 @@
         <v>0.0</v>
       </c>
       <c r="J23" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="3">
@@ -1023,7 +1047,7 @@
         <v>0.0</v>
       </c>
       <c r="J24" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="3">
@@ -1059,7 +1083,7 @@
         <v>0.0</v>
       </c>
       <c r="J25" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="3">
@@ -1095,7 +1119,7 @@
         <v>0.0</v>
       </c>
       <c r="J26" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="3">
@@ -1131,7 +1155,7 @@
         <v>0.0</v>
       </c>
       <c r="J27" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="3">
@@ -1167,7 +1191,7 @@
         <v>0.0</v>
       </c>
       <c r="J28" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="3">
@@ -1203,7 +1227,7 @@
         <v>0.0</v>
       </c>
       <c r="J29" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="3">
@@ -1224,26 +1248,26 @@
         <v>12</v>
       </c>
       <c r="E30" s="4">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F30" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G30" s="4">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H30" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I30" s="4">
         <v>0.0</v>
       </c>
       <c r="J30" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="3">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="31">
@@ -1260,26 +1284,26 @@
         <v>12</v>
       </c>
       <c r="E31" s="4">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="F31" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G31" s="4">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H31" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I31" s="4">
         <v>0.0</v>
       </c>
       <c r="J31" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="3">
-        <v>0.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="32">
@@ -1296,26 +1320,26 @@
         <v>12</v>
       </c>
       <c r="E32" s="4">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="F32" s="4">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G32" s="4">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H32" s="4">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I32" s="4">
         <v>0.0</v>
       </c>
       <c r="J32" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="3">
-        <v>0.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="33">
@@ -1332,26 +1356,26 @@
         <v>12</v>
       </c>
       <c r="E33" s="4">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="F33" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G33" s="4">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H33" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I33" s="4">
         <v>0.0</v>
       </c>
       <c r="J33" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="3">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="34">
@@ -1368,26 +1392,26 @@
         <v>12</v>
       </c>
       <c r="E34" s="4">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F34" s="4">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G34" s="4">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H34" s="4">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I34" s="4">
         <v>0.0</v>
       </c>
       <c r="J34" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="3">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,26 +1428,26 @@
         <v>12</v>
       </c>
       <c r="E35" s="4">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F35" s="4">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G35" s="4">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="H35" s="4">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I35" s="4">
         <v>0.0</v>
       </c>
       <c r="J35" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="6"/>
       <c r="L35" s="3">
-        <v>0.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="36">
@@ -1440,26 +1464,26 @@
         <v>12</v>
       </c>
       <c r="E36" s="4">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F36" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G36" s="4">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H36" s="4">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="I36" s="4">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J36" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="3">
-        <v>0.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="37">
@@ -1476,282 +1500,314 @@
         <v>12</v>
       </c>
       <c r="E37" s="4">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F37" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G37" s="4">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H37" s="4">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="I37" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J37" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="3">
-        <v>0.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C38" s="4">
         <v>1.0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E38" s="4">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F38" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G38" s="4">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H38" s="4">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I38" s="4">
         <v>0.0</v>
       </c>
       <c r="J38" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="3">
-        <v>0.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C39" s="4">
         <v>2.0</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E39" s="4">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F39" s="4">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G39" s="4">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="H39" s="4">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="I39" s="4">
         <v>0.0</v>
       </c>
       <c r="J39" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="3">
-        <v>0.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="C40" s="4">
         <v>1.0</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E40" s="4">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F40" s="4">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G40" s="4">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="H40" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I40" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J40" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="3">
-        <v>0.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+      <c r="A41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="C41" s="4">
         <v>2.0</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E41" s="4">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F41" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G41" s="4">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H41" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I41" s="4">
         <v>0.0</v>
       </c>
       <c r="J41" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="3">
-        <v>0.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+      <c r="A42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C42" s="4">
         <v>3.0</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E42" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="F42" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G42" s="4">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H42" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I42" s="4">
         <v>0.0</v>
       </c>
       <c r="J42" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="3">
-        <v>0.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="A43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C43" s="4">
         <v>4.0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E43" s="4">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F43" s="4">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G43" s="4">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H43" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I43" s="4">
         <v>0.0</v>
       </c>
       <c r="J43" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="3">
-        <v>0.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="A44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C44" s="4">
         <v>3.0</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E44" s="4">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F44" s="4">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G44" s="4">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H44" s="4">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I44" s="4">
         <v>0.0</v>
       </c>
       <c r="J44" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="3">
-        <v>0.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
+      <c r="A45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C45" s="4">
         <v>4.0</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E45" s="4">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F45" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G45" s="4">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H45" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I45" s="4">
         <v>0.0</v>
       </c>
       <c r="J45" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="3">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="46">
